--- a/data/player_data.xlsx
+++ b/data/player_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\AM4PEPF0000C239\EXCELCNV\45d89986-720a-47ac-8f5b-91b6f6199ec3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\PA1PEPF00053E80\EXCELCNV\0d059f41-a88c-47d4-b07e-eaacd46319c0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3D0589-EC77-4B07-AEC3-6781DFF4C2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D46726-C330-4C65-A573-75562B5B2827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{1F0AC613-E39F-44C0-B847-706805A7B554}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{3C125785-D3A4-44FA-B2FE-590776096D55}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>salary</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Salary (â‚¬M)</t>
   </si>
   <si>
     <t>Alex Carter</t>
@@ -1004,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A1F19-4295-4C69-A217-F8486EE1F002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233288C3-A9D9-4F05-8B3D-83869E20CC16}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1611,7 +1611,7 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>86</v>
